--- a/data/loop/group8/0.1/DNN/schedule/7.xlsx
+++ b/data/loop/group8/0.1/DNN/schedule/7.xlsx
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391334056854248</v>
+        <v>0.3935999870300293</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06734823583627592</v>
+        <v>0.06716775326348323</v>
       </c>
       <c r="H2" t="n">
-        <v>37.94251642862929</v>
+        <v>37.82544996343138</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -494,31 +494,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3928899765014648</v>
+        <v>0.3963508605957031</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06716775326348323</v>
+        <v>0.06734823583627592</v>
       </c>
       <c r="H3" t="n">
-        <v>37.89380616829278</v>
+        <v>37.46225972351382</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -544,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4098010063171387</v>
+        <v>0.4131858348846436</v>
       </c>
       <c r="G4" t="n">
         <v>0.06641298206535373</v>
       </c>
       <c r="H4" t="n">
-        <v>36.74294800143351</v>
+        <v>36.441948863638</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -581,13 +581,13 @@
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="n">
-        <v>0.3982570171356201</v>
+        <v>0.4005289077758789</v>
       </c>
       <c r="G5" t="n">
         <v>0.0695706384577351</v>
       </c>
       <c r="H5" t="n">
-        <v>36.09196889514872</v>
+        <v>35.88724707674933</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -615,20 +615,16 @@
       <c r="C6" t="n">
         <v>298</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
       <c r="F6" t="n">
-        <v>0.4019038677215576</v>
+        <v>0.402601957321167</v>
       </c>
       <c r="G6" t="n">
         <v>0.06983870981894458</v>
       </c>
       <c r="H6" t="n">
-        <v>35.62719301413502</v>
+        <v>35.56541742548183</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -636,15 +632,9 @@
       <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
@@ -656,20 +646,16 @@
       <c r="C7" t="n">
         <v>113</v>
       </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
       <c r="F7" t="n">
-        <v>0.3932480812072754</v>
+        <v>0.397819995880127</v>
       </c>
       <c r="G7" t="n">
         <v>0.07176173470378013</v>
       </c>
       <c r="H7" t="n">
-        <v>35.43565455961279</v>
+        <v>35.0284131169981</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -677,15 +663,9 @@
       <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
@@ -697,20 +677,16 @@
       <c r="C8" t="n">
         <v>53</v>
       </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
       <c r="F8" t="n">
-        <v>0.3908400535583496</v>
+        <v>0.3949768543243408</v>
       </c>
       <c r="G8" t="n">
         <v>0.07308977586382139</v>
       </c>
       <c r="H8" t="n">
-        <v>35.00614648556856</v>
+        <v>34.63950866360397</v>
       </c>
       <c r="I8" t="n">
         <v>13</v>
@@ -718,15 +694,9 @@
       <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
@@ -738,20 +708,16 @@
       <c r="C9" t="n">
         <v>166</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
       <c r="F9" t="n">
-        <v>0.3920869827270508</v>
+        <v>0.3961279392242432</v>
       </c>
       <c r="G9" t="n">
         <v>0.07357143636712413</v>
       </c>
       <c r="H9" t="n">
-        <v>34.66636784247862</v>
+        <v>34.31273137684214</v>
       </c>
       <c r="I9" t="n">
         <v>14</v>
@@ -759,15 +725,9 @@
       <c r="J9" t="n">
         <v>7</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
@@ -777,38 +737,28 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>103</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
       <c r="F10" t="n">
-        <v>0.4081318378448486</v>
+        <v>0.4050350189208984</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0718863407727233</v>
+        <v>0.07314674292727129</v>
       </c>
       <c r="H10" t="n">
-        <v>34.08420336220735</v>
+        <v>33.75300423044934</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
@@ -818,38 +768,28 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>118</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
       <c r="F11" t="n">
-        <v>0.402008056640625</v>
+        <v>0.4121530055999756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07314674292727129</v>
+        <v>0.0718863407727233</v>
       </c>
       <c r="H11" t="n">
-        <v>34.00715105403604</v>
+        <v>33.75166108383725</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -861,20 +801,16 @@
       <c r="C12" t="n">
         <v>51</v>
       </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.3910880088806152</v>
+        <v>0.3944377899169922</v>
       </c>
       <c r="G12" t="n">
         <v>0.07600637538710309</v>
       </c>
       <c r="H12" t="n">
-        <v>33.6415097335214</v>
+        <v>33.35580766789488</v>
       </c>
       <c r="I12" t="n">
         <v>25</v>
@@ -882,15 +818,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -902,20 +832,16 @@
       <c r="C13" t="n">
         <v>156</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.5214531421661377</v>
+        <v>0.5240509510040283</v>
       </c>
       <c r="G13" t="n">
         <v>0.06773371162933547</v>
       </c>
       <c r="H13" t="n">
-        <v>28.31260544297221</v>
+        <v>28.1722550886745</v>
       </c>
       <c r="I13" t="n">
         <v>6</v>
@@ -923,15 +849,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -943,20 +863,16 @@
       <c r="C14" t="n">
         <v>38</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.5194029808044434</v>
+        <v>0.5203421115875244</v>
       </c>
       <c r="G14" t="n">
         <v>0.07015164402938633</v>
       </c>
       <c r="H14" t="n">
-        <v>27.44465078172316</v>
+        <v>27.39511776141583</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -964,15 +880,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -984,20 +894,16 @@
       <c r="C15" t="n">
         <v>159</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
       <c r="F15" t="n">
-        <v>0.5237541198730469</v>
+        <v>0.5269260406494141</v>
       </c>
       <c r="G15" t="n">
         <v>0.0703313997430435</v>
       </c>
       <c r="H15" t="n">
-        <v>27.14709026367316</v>
+        <v>26.98367374411923</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
@@ -1005,15 +911,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1023,22 +923,18 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5360360145568848</v>
+        <v>0.5196869373321533</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06979233224469926</v>
+        <v>0.07223155141120263</v>
       </c>
       <c r="H16" t="n">
-        <v>26.72996063091408</v>
+        <v>26.63981818295231</v>
       </c>
       <c r="I16" t="n">
         <v>6</v>
@@ -1046,15 +942,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1064,22 +954,18 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>206</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5185220241546631</v>
+        <v>0.5397899150848389</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07223155141120263</v>
+        <v>0.06979233224469926</v>
       </c>
       <c r="H17" t="n">
-        <v>26.69966728058295</v>
+        <v>26.54407050862677</v>
       </c>
       <c r="I17" t="n">
         <v>6</v>
@@ -1087,15 +973,9 @@
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1107,20 +987,16 @@
       <c r="C18" t="n">
         <v>94</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5193848609924316</v>
+        <v>0.5210540294647217</v>
       </c>
       <c r="G18" t="n">
         <v>0.07509058223887977</v>
       </c>
       <c r="H18" t="n">
-        <v>25.64042630067527</v>
+        <v>25.55828857833363</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -1128,15 +1004,9 @@
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1148,20 +1018,16 @@
       <c r="C19" t="n">
         <v>211</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.5246059894561768</v>
+        <v>0.5282390117645264</v>
       </c>
       <c r="G19" t="n">
         <v>0.07582132294385252</v>
       </c>
       <c r="H19" t="n">
-        <v>25.14058606625088</v>
+        <v>24.96767890114285</v>
       </c>
       <c r="I19" t="n">
         <v>6</v>
@@ -1169,15 +1035,9 @@
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1189,20 +1049,16 @@
       <c r="C20" t="n">
         <v>154</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.5243408679962158</v>
+        <v>0.5302438735961914</v>
       </c>
       <c r="G20" t="n">
         <v>0.07960168716287076</v>
       </c>
       <c r="H20" t="n">
-        <v>23.95874242781992</v>
+        <v>23.69201876015997</v>
       </c>
       <c r="I20" t="n">
         <v>21</v>
@@ -1210,15 +1066,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1230,20 +1080,16 @@
       <c r="C21" t="n">
         <v>61</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.8728399276733398</v>
+        <v>0.8758289813995361</v>
       </c>
       <c r="G21" t="n">
         <v>0.06919866541003371</v>
       </c>
       <c r="H21" t="n">
-        <v>16.5564673411353</v>
+        <v>16.49996296476768</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1251,15 +1097,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1271,20 +1111,16 @@
       <c r="C22" t="n">
         <v>132</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.8667550086975098</v>
+        <v>0.8755419254302979</v>
       </c>
       <c r="G22" t="n">
         <v>0.07004068847482992</v>
       </c>
       <c r="H22" t="n">
-        <v>16.47226170711608</v>
+        <v>16.30694650310688</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -1292,15 +1128,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1312,20 +1142,16 @@
       <c r="C23" t="n">
         <v>129</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.8681390285491943</v>
+        <v>0.8741350173950195</v>
       </c>
       <c r="G23" t="n">
         <v>0.07039123546207288</v>
       </c>
       <c r="H23" t="n">
-        <v>16.36410024268315</v>
+        <v>16.25185332364369</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
@@ -1333,15 +1159,9 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1353,20 +1173,16 @@
       <c r="C24" t="n">
         <v>252</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.9159348011016846</v>
+        <v>0.9227340221405029</v>
       </c>
       <c r="G24" t="n">
         <v>0.06944501187986572</v>
       </c>
       <c r="H24" t="n">
-        <v>15.72151458840992</v>
+        <v>15.60566966431831</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -1374,15 +1190,9 @@
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1394,20 +1204,16 @@
       <c r="C25" t="n">
         <v>18</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.8870100975036621</v>
+        <v>0.9000070095062256</v>
       </c>
       <c r="G25" t="n">
         <v>0.07197378319155162</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66379912115694</v>
+        <v>15.4375997508707</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
@@ -1415,15 +1221,9 @@
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1433,38 +1233,28 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>124</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.8851768970489502</v>
+        <v>0.8759150505065918</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0729953614418563</v>
+        <v>0.07417047640012769</v>
       </c>
       <c r="H26" t="n">
-        <v>15.47656821461683</v>
+        <v>15.39242133564209</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1474,38 +1264,28 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>62</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.8711769580841064</v>
+        <v>0.8904759883880615</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07417047640012769</v>
+        <v>0.0729953614418563</v>
       </c>
       <c r="H27" t="n">
-        <v>15.47613649157837</v>
+        <v>15.38446943861985</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1517,20 +1297,16 @@
       <c r="C28" t="n">
         <v>259</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.8767940998077393</v>
+        <v>0.8817441463470459</v>
       </c>
       <c r="G28" t="n">
         <v>0.07418020065632183</v>
       </c>
       <c r="H28" t="n">
-        <v>15.37497355939638</v>
+        <v>15.2886595929528</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
@@ -1538,15 +1314,9 @@
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1558,20 +1328,16 @@
       <c r="C29" t="n">
         <v>184</v>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8725118637084961</v>
+        <v>0.875478982925415</v>
       </c>
       <c r="G29" t="n">
         <v>0.07671402825056475</v>
       </c>
       <c r="H29" t="n">
-        <v>14.9401126120459</v>
+        <v>14.88947850648918</v>
       </c>
       <c r="I29" t="n">
         <v>6</v>
@@ -1579,15 +1345,9 @@
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1599,20 +1359,16 @@
       <c r="C30" t="n">
         <v>73</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8734109401702881</v>
+        <v>0.8781068325042725</v>
       </c>
       <c r="G30" t="n">
         <v>0.07904835969683792</v>
       </c>
       <c r="H30" t="n">
-        <v>14.48399979562265</v>
+        <v>14.40654304310916</v>
       </c>
       <c r="I30" t="n">
         <v>21</v>
@@ -1620,15 +1376,9 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1390,16 @@
       <c r="C31" t="n">
         <v>75</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.8865110874176025</v>
+        <v>0.8892970085144043</v>
       </c>
       <c r="G31" t="n">
         <v>0.07905619898575442</v>
       </c>
       <c r="H31" t="n">
-        <v>14.26855188195021</v>
+        <v>14.22385246282685</v>
       </c>
       <c r="I31" t="n">
         <v>7</v>
@@ -1661,15 +1407,9 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
